--- a/data/data_2023-11-24_LSR3_H.xlsx
+++ b/data/data_2023-11-24_LSR3_H.xlsx
@@ -1721,7 +1721,7 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>Some concerns</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -2135,7 +2135,7 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>Some concerns</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -2459,7 +2459,7 @@
         </is>
       </c>
       <c r="J6">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -2471,12 +2471,22 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>22</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>144</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -2491,7 +2501,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Some concerns</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -2501,12 +2511,12 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>Some concerns</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -2515,13 +2525,16 @@
         </is>
       </c>
       <c r="AG6">
-        <v>145</v>
+        <v>142</v>
+      </c>
+      <c r="AH6">
+        <v>102</v>
       </c>
       <c r="AI6">
         <v>-16.9</v>
       </c>
       <c r="AJ6">
-        <v>20</v>
+        <v>19.07</v>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
@@ -2535,7 +2548,7 @@
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="DW6" t="inlineStr">
@@ -2611,7 +2624,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>29</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -2619,6 +2632,16 @@
           <t>145</t>
         </is>
       </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
       <c r="Z7" t="inlineStr">
         <is>
           <t>Low</t>
@@ -2631,7 +2654,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Some concerns</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
@@ -2641,12 +2664,12 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>Some concerns</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -2657,11 +2680,14 @@
       <c r="AG7">
         <v>145</v>
       </c>
+      <c r="AH7">
+        <v>102</v>
+      </c>
       <c r="AI7">
         <v>-19.6</v>
       </c>
       <c r="AJ7">
-        <v>20</v>
+        <v>19.27</v>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
@@ -2675,7 +2701,7 @@
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="DW7" t="inlineStr">
@@ -2739,7 +2765,7 @@
         </is>
       </c>
       <c r="J8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -2751,12 +2777,22 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>26</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>146</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -2771,7 +2807,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Some concerns</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
@@ -2781,12 +2817,12 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>Some concerns</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -2797,11 +2833,14 @@
       <c r="AG8">
         <v>145</v>
       </c>
+      <c r="AH8">
+        <v>102</v>
+      </c>
       <c r="AI8">
         <v>-19.3</v>
       </c>
       <c r="AJ8">
-        <v>20</v>
+        <v>18.06</v>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
@@ -2815,7 +2854,7 @@
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="DW8" t="inlineStr">
@@ -2879,7 +2918,7 @@
         </is>
       </c>
       <c r="J9">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -2891,12 +2930,22 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>23</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>155</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2911,7 +2960,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Some concerns</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
@@ -2921,12 +2970,12 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>Some concerns</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -2935,13 +2984,16 @@
         </is>
       </c>
       <c r="AG9">
-        <v>154</v>
+        <v>153</v>
+      </c>
+      <c r="AH9">
+        <v>101</v>
       </c>
       <c r="AI9">
         <v>-16.4</v>
       </c>
       <c r="AJ9">
-        <v>20</v>
+        <v>18.55</v>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
@@ -2955,7 +3007,7 @@
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="DW9" t="inlineStr">
@@ -3031,7 +3083,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>27</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -3039,6 +3091,16 @@
           <t>154</t>
         </is>
       </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
       <c r="Z10" t="inlineStr">
         <is>
           <t>Low</t>
@@ -3051,7 +3113,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Some concerns</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
@@ -3061,12 +3123,12 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>Some concerns</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -3075,13 +3137,16 @@
         </is>
       </c>
       <c r="AG10">
-        <v>154</v>
+        <v>152</v>
+      </c>
+      <c r="AH10">
+        <v>100</v>
       </c>
       <c r="AI10">
         <v>-18.1</v>
       </c>
       <c r="AJ10">
-        <v>20</v>
+        <v>18.49</v>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
@@ -3095,7 +3160,7 @@
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="DW10" t="inlineStr">
@@ -3159,7 +3224,7 @@
         </is>
       </c>
       <c r="J11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -3171,12 +3236,22 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>21</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>155</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -3191,7 +3266,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Some concerns</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
@@ -3201,12 +3276,12 @@
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>Some concerns</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
@@ -3215,13 +3290,16 @@
         </is>
       </c>
       <c r="AG11">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AH11">
+        <v>100</v>
       </c>
       <c r="AI11">
         <v>-14.3</v>
       </c>
       <c r="AJ11">
-        <v>20</v>
+        <v>18.67</v>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
@@ -3235,7 +3313,7 @@
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="DW11" t="inlineStr">
@@ -3389,7 +3467,7 @@
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>Some concerns</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
@@ -3668,24 +3746,24 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
         <is>
           <t>65</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
       <c r="Z13" t="inlineStr">
         <is>
           <t>Low</t>
@@ -3713,7 +3791,7 @@
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>Some concerns</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
@@ -4037,7 +4115,7 @@
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>Some concerns</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
@@ -4361,7 +4439,7 @@
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>Some concerns</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
@@ -4945,9 +5023,6 @@
           <t>36</t>
         </is>
       </c>
-      <c r="AH18">
-        <v>-10.69</v>
-      </c>
       <c r="CS18">
         <v>15</v>
       </c>
@@ -5093,9 +5168,6 @@
         <is>
           <t>63</t>
         </is>
-      </c>
-      <c r="AH19">
-        <v>-17.3</v>
       </c>
       <c r="CS19">
         <v>2</v>
